--- a/PVC_BKM/Combination_keys_pvc.xlsx
+++ b/PVC_BKM/Combination_keys_pvc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\PVC_BKM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbikkumx\OneDrive - Intel Corporation\Desktop\intel_files\PVC_BKM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178C0FF-C24D-48DD-A781-B797C5110C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCBF9C4-8A24-415E-AB29-7FFC39350D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{26DFDFC8-351F-4D1A-AEF9-AEEF36A18EB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="152">
   <si>
     <t>Param</t>
   </si>
@@ -402,9 +402,6 @@
     <t>OverrideStatelessMocsIndex=2</t>
   </si>
   <si>
-    <t>ForceExecutionTile=1</t>
-  </si>
-  <si>
     <t>EnableWalkerPartition=0</t>
   </si>
   <si>
@@ -414,42 +411,15 @@
     <t>EnableStatelessCompression=1</t>
   </si>
   <si>
-    <t>Force32bitAddressing=0</t>
-  </si>
-  <si>
-    <t>ForceL3PrefetchForComputeWalker=0</t>
-  </si>
-  <si>
     <t>OverridePreferredSlmAllocationSizePerDss=1</t>
   </si>
   <si>
-    <t>DisableAuxTranslation=1</t>
-  </si>
-  <si>
-    <t>UseBindlessImages=0</t>
-  </si>
-  <si>
-    <t>MakeAllBuffersResident=1</t>
-  </si>
-  <si>
     <t>MultiTileIsaPlacement=1</t>
   </si>
   <si>
-    <t>ForceLargeGrfCompilationMode=1</t>
-  </si>
-  <si>
-    <t>ForceMultiGpuPartialWrites=1</t>
-  </si>
-  <si>
     <t>ForceMultiGpuAtomics=1</t>
   </si>
   <si>
-    <t>FlushAllCaches=1</t>
-  </si>
-  <si>
-    <t>Enable64kbpages=0</t>
-  </si>
-  <si>
     <t>EnableLocalMemory=1</t>
   </si>
   <si>
@@ -474,9 +444,6 @@
     <t>CFESingleSliceDispatchCCSMode=1</t>
   </si>
   <si>
-    <t>UseBindlessBuffers=1</t>
-  </si>
-  <si>
     <t>NodeOrdinal=7</t>
   </si>
   <si>
@@ -493,6 +460,36 @@
   </si>
   <si>
     <t>DisableCachingForStatefulBufferAccess=1</t>
+  </si>
+  <si>
+    <t>MakeAllBuffersResident=0</t>
+  </si>
+  <si>
+    <t>UseBindlessImages=1</t>
+  </si>
+  <si>
+    <t>UseBindlessBuffers=0</t>
+  </si>
+  <si>
+    <t>DisableAuxTranslation=0</t>
+  </si>
+  <si>
+    <t>ForceL3PrefetchForComputeWalker=1</t>
+  </si>
+  <si>
+    <t>Enable64kbpages=1</t>
+  </si>
+  <si>
+    <t>FlushAllCaches=0</t>
+  </si>
+  <si>
+    <t>ForceMultiGpuPartialWrites=0</t>
+  </si>
+  <si>
+    <t>Force32bitAddressing=1</t>
+  </si>
+  <si>
+    <t>ForceLargeGrfCompilationMode=0</t>
   </si>
 </sst>
 </file>
@@ -892,10 +889,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172A65A-7E87-45AB-B1D9-7909E3BEA2B3}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3505,14 +3502,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A4170B-3B72-451F-BAB9-4199686AAD75}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
     <col min="4" max="4" width="44.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -3522,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3533,13 +3530,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -3567,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3581,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3589,13 +3586,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -3603,13 +3600,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -3617,13 +3614,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -3631,13 +3628,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -3645,15 +3642,15 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -3664,7 +3661,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -3675,15 +3672,15 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -3691,10 +3688,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>39</v>
@@ -3702,7 +3699,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -3713,10 +3710,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>45</v>
@@ -3724,7 +3721,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -3735,10 +3732,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>52</v>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -3754,7 +3751,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -3762,10 +3759,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" ref="D27" si="0">_xlfn.CONCAT(D15,D16,D17,D18,D19,D20,D21,D22,D23,D24,D25)</f>
@@ -3774,7 +3771,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -3782,7 +3779,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -3790,39 +3787,39 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -3830,7 +3827,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -3838,7 +3835,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3863,12 +3860,12 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
@@ -3878,7 +3875,7 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
@@ -3893,7 +3890,7 @@
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
@@ -3903,7 +3900,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
@@ -3913,7 +3910,7 @@
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
@@ -3923,7 +3920,7 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
@@ -3938,7 +3935,7 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
@@ -3953,22 +3950,22 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
@@ -3984,7 +3981,7 @@
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="str">
         <f t="shared" ref="B75" si="1">_xlfn.CONCAT(B38:B71)</f>
-        <v>#PVC_EnableBlitterOperationsSupport_Disable#PVC_PrintDebugSettings_Enable#PVC_DisableCachingForStatefulBufferAccess_Disable#PVC_StatelessBuffer_L3Uncached#PVC_EnableStatelessToStatefulBufferOffsetOpt_Disable#PVC_CCS3#PVC_ForceExecutionTile_Enable#PVC_EnableWalkerPartition_disabled#PVC_ForceLargeGrfCompilationMode_Enable#PVC_OverrideL3MocsToL1_Enable#PVC_EnableStatelessCompression_Enable#PVC_Force32bitAddressing_Disable#PVC_DisableStatelessToStatefulOptimization_Enable#PVC_ForceMultiGpuPartialWrites_Enable#PVC_ForceMultiGpuAtomics_Enable#PVC_FlushAllCaches_Enable#PVC_ForceAuxTranslationMode_Disable#PVC_Enable64kbpages_Disable#PVC_EnableLocalMemory_Enable#PVC_CFESingleSliceDispatchCCSMode_Enable#PVC_ForceL3PrefetchForComputeWalker_Disable#PVC_ForceBcsCacheFlushOnPVCFamily_Disable#PVC_OverridePreferredSlmAllocationSizePerDss_Enable#PVC_DisableAuxTranslation_Enable#PVC_UseBindlessBuffers_Enable#PVC_UseBindlessImages_Disable#PVC_MakeAllBuffersResident_Enable#PVC_PowerSavingMode_Disable#PVC_MultiTileIsaPlacement_Enable</v>
+        <v>#PVC_EnableBlitterOperationsSupport_Enable#PVC_PrintDebugSettings_Enable#PVC_DisableCachingForStatefulBufferAccess_Disable#PVC_StatelessBuffer_L3Uncached#PVC_EnableStatelessToStatefulBufferOffsetOpt_Disable#PVC_CCS1#PVC_ForceExecutionTile_Disable#PVC_EnableWalkerPartition_disabled#PVC_ForceLargeGrfCompilationMode_Disable#PVC_OverrideL3MocsToL1_Enable#PVC_EnableStatelessCompression_Enable#PVC_Force32bitAddressing_Enable#PVC_DisableStatelessToStatefulOptimization_Enable#PVC_ForceMultiGpuPartialWrites_Disable#PVC_ForceMultiGpuAtomics_Enable#PVC_FlushAllCaches_Disable#PVC_ForceAuxTranslationMode_Disable#PVC_Enable64kbpages_Enable#PVC_EnableLocalMemory_Enable#PVC_CFESingleSliceDispatchCCSMode_Enable#PVC_ForceL3PrefetchForComputeWalker_Enable#PVC_ForceBcsCacheFlushOnPVCFamily_Disable#PVC_OverridePreferredSlmAllocationSizePerDss_Enable#PVC_DisableAuxTranslation_Disable#PVC_UseBindlessBuffers_Disable#PVC_UseBindlessImages_Enable#PVC_MakeAllBuffersResident_Disable#PVC_PowerSavingMode_Disable#PVC_MultiTileIsaPlacement_Enable</v>
       </c>
     </row>
   </sheetData>
